--- a/supplier.xlsx
+++ b/supplier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinrui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinrui/Documents/aihubmix/效率工具/oepnsource model rename/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7631CAA8-D49E-FB41-81FA-51595AE6B28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5199234-313F-F745-A40D-3C8D5D7FD354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1260" windowWidth="27700" windowHeight="16560" xr2:uid="{3D66303D-A5F4-BF40-A3ED-2FA7C4904761}"/>
   </bookViews>
@@ -26,96 +26,127 @@
   </si>
   <si>
     <t>supplier_name</t>
-  </si>
-  <si>
-    <t>OpenAI</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Anthropic</t>
-  </si>
-  <si>
-    <t>VertexAI</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Google AI Studio</t>
-  </si>
-  <si>
-    <t>DeepSeek</t>
-  </si>
-  <si>
-    <t>Bytedance</t>
-  </si>
-  <si>
-    <t>Sophnet</t>
-  </si>
-  <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Chutes</t>
-  </si>
-  <si>
-    <t>Groq</t>
-  </si>
-  <si>
-    <t>Cerebras</t>
-  </si>
-  <si>
-    <t>Alibaba Cloud</t>
-  </si>
-  <si>
-    <t>Siliconflow</t>
-  </si>
-  <si>
-    <t>Z.AI</t>
-  </si>
-  <si>
-    <t>Cohere</t>
-  </si>
-  <si>
-    <t>Grok</t>
-  </si>
-  <si>
-    <t>Deepinfra</t>
-  </si>
-  <si>
-    <t>Mistral</t>
-  </si>
-  <si>
-    <t>Yi</t>
-  </si>
-  <si>
-    <t>Moonshot</t>
-  </si>
-  <si>
-    <t>StepFun</t>
-  </si>
-  <si>
-    <t>Nvidia</t>
-  </si>
-  <si>
-    <t>Minimax</t>
-  </si>
-  <si>
-    <t>Perplexity</t>
-  </si>
-  <si>
-    <t>Baichuan</t>
-  </si>
-  <si>
-    <t>Ideogram</t>
-  </si>
-  <si>
-    <t>Jina AI</t>
-  </si>
-  <si>
-    <t>Flux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>openai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>azure</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anthropic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertexai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aistudio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytedance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophnet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chutes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>groq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cerebras</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alicloud</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>siliconflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohere</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>grok</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepinfra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistral</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonshot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepFun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvidia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimax</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplexity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baichuan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideogram</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinaai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>flux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepseek</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1089,7 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9147D65-6D01-AE4F-8E15-70AE0BBB50E1}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1154,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1162,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1170,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1186,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1194,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1202,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1210,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1218,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1226,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1234,7 +1267,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1242,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1250,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1258,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1266,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1274,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1282,7 +1315,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1290,7 +1323,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1298,7 +1331,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1306,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1314,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1322,7 +1355,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1330,7 +1363,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1338,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1346,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
